--- a/Dataset/belongs_to.xlsx
+++ b/Dataset/belongs_to.xlsx
@@ -103,18 +103,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -397,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -421,112 +418,222 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="C5" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C8" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C9" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C11" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="C17" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="C18" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="C19" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="C20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="B21" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="C21" s="2">
         <v>15</v>
       </c>
     </row>
